--- a/biology/Zoologie/Douc/Douc.xlsx
+++ b/biology/Zoologie/Douc/Douc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pygathrix nemaeus
-Le Douc ou douc à pattes rouges (Pygathrix nemaeus) est une espèce de primates de la famille des Cercopithecidae. On l'appelle au Vietnam "le singe aux cinq couleurs" ou "le singe costumé"[1]. 
-Les doucs sont menacés par le braconnage (leur fourrure colorée est convoitée, leur viande est très appréciée et  ils peuvent aussi servir d'animaux de compagnie en Asie du Sud-Est) et par la destruction de leur habitat naturel[2].
+Le Douc ou douc à pattes rouges (Pygathrix nemaeus) est une espèce de primates de la famille des Cercopithecidae. On l'appelle au Vietnam "le singe aux cinq couleurs" ou "le singe costumé". 
+Les doucs sont menacés par le braconnage (leur fourrure colorée est convoitée, leur viande est très appréciée et  ils peuvent aussi servir d'animaux de compagnie en Asie du Sud-Est) et par la destruction de leur habitat naturel.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pygathrix nemaeus mesure 60 cm et a une queue longue de 56 à 76 cm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pygathrix nemaeus mesure 60 cm et a une queue longue de 56 à 76 cm.
 Il a un pelage bariolé de nombreuses couleurs : son dos et son ventre sont gris ; ses cuisses, ses mains et ses pieds sont noirs ; ses pattes sont marron-rouge ; sa queue et ses avant-bras sont blancs.
 Sa face est ocre avec un nez blanc ; ses paupières sont bleu-clair ; son front est noir ; ses joues et sa gorge sont blanches, 
 </t>
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le douc à pattes rouges se rencontre au Laos et au Viêt Nam, uniquement dans les montagnes Annamites et plaines avoisinantes. 
 </t>
@@ -577,11 +593,13 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est diurne. Ce singe est agile et bruyant. Il vit dans les cimes des arbres de la forêt tropicale.
-Les doucs à pattes rouges sont souvent par groupe mixte de 4 à 15 individus[4], parfois jusqu'à 50 individus, mâles et femelles.
-Ces singes sont très liés entre eux, si l'un d'eux se fait tuer, les autres restent sur place[5].
+Les doucs à pattes rouges sont souvent par groupe mixte de 4 à 15 individus, parfois jusqu'à 50 individus, mâles et femelles.
+Ces singes sont très liés entre eux, si l'un d'eux se fait tuer, les autres restent sur place.
 La femelle, après une gestation de cinq mois et demi à six mois et demi, donne naissance à un petit au pelage gris et au visage noir  entre janvier et mai, période où les fruits sont les plus abondants.
 </t>
         </is>
@@ -611,9 +629,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils se nourrissent de près de cinquante plantes : principalement de feuilles qui représentent 82 % de leur alimentation. Ils mangent aussi des fruits et des graines (14 % de leur alimentation) et des fleurs (4 % de leur alimentation). Les doucs ne boivent pas, l'eau qu'ils ingèrent provient uniquement de leur nourriture[4]. Son système digestif complexe lui permet d'extraire les éléments nutritifs essentiels [6]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils se nourrissent de près de cinquante plantes : principalement de feuilles qui représentent 82 % de leur alimentation. Ils mangent aussi des fruits et des graines (14 % de leur alimentation) et des fleurs (4 % de leur alimentation). Les doucs ne boivent pas, l'eau qu'ils ingèrent provient uniquement de leur nourriture. Son système digestif complexe lui permet d'extraire les éléments nutritifs essentiels 
 </t>
         </is>
       </c>
